--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnjst\Documents\UiPath\RPA01_티켓랭킹_원성현\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211681BD-651E-4122-B3DC-9288250F8D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E7AF99-D471-45D0-B304-7565CCEE5D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
   <si>
     <t>Name</t>
   </si>
@@ -184,14 +184,7 @@
     <t>구분자 |</t>
   </si>
   <si>
-    <t>WebSite Info</t>
-  </si>
-  <si>
     <t>접속사이트 URL입력</t>
-  </si>
-  <si>
-    <t>Folder</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Ticket_Main</t>
@@ -202,11 +195,75 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>Mail_Receiver</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Mail</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Mail_Title</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Mail_Contents</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>안녕하세요.&lt;br&gt;
+&lt;br&gt;
+예스24 티켓랭킹 파일 송부드립니다.&lt;br&gt;
+&lt;br&gt;
+감사합니다.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Mail_Writer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>원성현</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 예스24 티켓랭킹 과제 제출_</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Mail_Folder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C:\RPA_Repository\티켓랭킹</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WebSite Info</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Data</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Data\Input\Temp.xlsx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Data_Input</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Data_Output</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Data\Output\티켓랭킹_{0}_{1}.xlsx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>rpa.sj.jeong@gmail.com</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Mail_Receiver</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -662,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -746,61 +803,77 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
@@ -809,34 +882,34 @@
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" ht="31.2">
-      <c r="A19" s="4" t="s">
-        <v>31</v>
-      </c>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" s="4"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" s="4"/>
@@ -845,18 +918,40 @@
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="31.2">
+      <c r="A22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
@@ -1831,16 +1926,20 @@
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="1001" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{B57695E5-8DBC-465F-B07B-87864FD2A949}"/>
-    <hyperlink ref="B8" r:id="rId2" xr:uid="{16B20982-BA74-44D5-A45E-5B8BD9C05BA8}"/>
+    <hyperlink ref="B10" r:id="rId2" xr:uid="{684C5741-9492-4130-BFD7-6EBF95ABF2C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
